--- a/pred_ohlcv/54_21/2019-11-18 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 MIX ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-760039.0496000004</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-763921.1667000004</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-763857.1647000004</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-805600.2452000005</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-785705.9567000004</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>407633.4106999995</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>407770.7794999995</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>409733.4106999995</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>402810.1128999995</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>372259.3781999996</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>308649.2725999996</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>268088.5783999995</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>227645.8418999995</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1868628.2238</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3024680.750999999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22658318.99007635</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>22567422.16927635</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22448795.64337635</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>21887212.77998527</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23070357.40318527</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>24454048.16488527</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>26549737.40555044</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25934692.95905044</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>26551810.34845044</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>28165710.58063137</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>26261468.23150008</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24150152.53650008</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>23474234.26543491</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25799021.64013491</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>27144875.24536974</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>30796750.22910339</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>35309044.13759189</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>60998765.18066256</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>59728849.55416679</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>59295163.91626679</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>61719622.18686679</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>59627026.94266679</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>56362831.44779034</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>53206015.73689034</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>51295883.38089034</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>52012989.11199034</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>50565375.04099034</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>48843372.00129034</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>48909723.57590847</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>50068659.75450847</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>48728974.91760846</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>47742170.50010847</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>48926688.10120846</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>49349951.44720846</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>49790986.90750846</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>49277294.24210846</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>49722289.05720846</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>49279538.37810846</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47999695.37730847</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47104796.11330847</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>45689892.84960847</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>47058444.59520847</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>47058539.65120847</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>47080637.17440847</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>47080637.17440847</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>45151233.43740846</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>45495552.15580846</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-18 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 MIX ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>407770.7794999995</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>268088.5783999995</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1868628.2238</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>22658318.99007635</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>22567422.16927635</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22448795.64337635</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>21887212.77998527</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>23070357.40318527</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>24454048.16488527</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>26549737.40555044</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25934692.95905044</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>26551810.34845044</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>28165710.58063137</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>26261468.23150008</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24150152.53650008</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>23474234.26543491</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25799021.64013491</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>27144875.24536974</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>30796750.22910339</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>35309044.13759189</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>48909723.57590847</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>50068659.75450847</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>48728974.91760846</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>47742170.50010847</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>48926688.10120846</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>49349951.44720846</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>49790986.90750846</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>49277294.24210846</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>49722289.05720846</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>49279538.37810846</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47999695.37730847</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47104796.11330847</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>45689892.84960847</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
